--- a/thirdTarget_I2CTool/config/AHT10/AHT10.xlsx
+++ b/thirdTarget_I2CTool/config/AHT10/AHT10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitProject\QT\thirdTarget_I2CTool\config\AHT10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AC1B7D4-B431-430D-BF6D-EF71E501A600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE16BDF2-59D9-4CE9-BC92-73104B7373E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="16920" xr2:uid="{8DD712A8-A500-4291-A6FB-215C5A4A63D2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8DD712A8-A500-4291-A6FB-215C5A4A63D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,135 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+  <si>
+    <t>数据地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据含义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">忙闲指示
+1--设备忙，处于测量状态
+0--设备闲，处于休眠状态
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校准使能位
+0--未校准
+1--已校准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前工作模式
+00当前处于NOR mode
+01当前处于CYC mode
+1x当前处于CMD mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5:6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位数据探测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义脚本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脚本名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>含义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校准寄存器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Calibration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Measurement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行一次测量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SoftReset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软复位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据地址操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -76,9 +205,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -394,12 +532,189 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{606562A8-3201-4B1B-8A6C-40F06CBDC9B1}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="21.875" defaultRowHeight="66.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="21.875" style="2"/>
+    <col min="3" max="3" width="31.25" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="21.875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="7" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" ht="93" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="2">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A7:E7"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/thirdTarget_I2CTool/config/AHT10/AHT10.xlsx
+++ b/thirdTarget_I2CTool/config/AHT10/AHT10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitProject\QT\thirdTarget_I2CTool\config\AHT10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE16BDF2-59D9-4CE9-BC92-73104B7373E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43124274-8D1E-482D-955A-3DA0035CFA7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8DD712A8-A500-4291-A6FB-215C5A4A63D2}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{8DD712A8-A500-4291-A6FB-215C5A4A63D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>数据地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,10 +65,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>校准使能位
 0--未校准
 1--已校准</t>
@@ -159,6 +155,14 @@
   </si>
   <si>
     <t>写入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -166,7 +170,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,6 +183,15 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -205,7 +218,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -216,6 +229,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -534,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{606562A8-3201-4B1B-8A6C-40F06CBDC9B1}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.875" defaultRowHeight="66.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -546,102 +565,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="A1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="A7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="A10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
@@ -657,41 +684,41 @@
         <v>4</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>6</v>
+      <c r="A12" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4"/>
+      <c r="B13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" ht="93" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="2">
         <v>7</v>
       </c>
@@ -699,20 +726,16 @@
         <v>2</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="E14" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="5">
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="E12:E14"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
     <mergeCell ref="A7:E7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/thirdTarget_I2CTool/config/AHT10/AHT10.xlsx
+++ b/thirdTarget_I2CTool/config/AHT10/AHT10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitProject\QT\thirdTarget_I2CTool\config\AHT10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitProject\WirelessMonitor\thirdTarget_I2CTool\config\AHT10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43124274-8D1E-482D-955A-3DA0035CFA7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F737CEDF-8DC5-4421-B5D9-BBE650F80E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{8DD712A8-A500-4291-A6FB-215C5A4A63D2}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{8DD712A8-A500-4291-A6FB-215C5A4A63D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
   <si>
     <t>数据地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -146,10 +146,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>读写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数据地址操作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -162,7 +158,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0</t>
+    <t>读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -218,15 +226,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -255,9 +260,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -295,7 +300,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -401,7 +406,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -543,7 +548,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -553,27 +558,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{606562A8-3201-4B1B-8A6C-40F06CBDC9B1}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.875" defaultRowHeight="66.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="21.86328125" defaultRowHeight="66.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="21.875" style="2"/>
-    <col min="3" max="3" width="31.25" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="21.875" style="2"/>
+    <col min="1" max="2" width="21.86328125" style="2"/>
+    <col min="3" max="3" width="31.265625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="21.86328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -583,14 +588,14 @@
       <c r="C2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -600,12 +605,14 @@
       <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
@@ -615,12 +622,14 @@
       <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
@@ -630,21 +639,23 @@
       <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
@@ -652,7 +663,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
@@ -661,16 +672,16 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
@@ -687,8 +698,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -700,12 +711,12 @@
       <c r="D12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
+      <c r="E12" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="3"/>
       <c r="B13" s="2" t="s">
         <v>8</v>
       </c>
@@ -715,10 +726,10 @@
       <c r="D13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" ht="93" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" ht="93" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="3"/>
       <c r="B14" s="2">
         <v>7</v>
       </c>
@@ -728,7 +739,7 @@
       <c r="D14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="4"/>
+      <c r="E14" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">
